--- a/medicine/Enfance/Brigitte_Peskine/Brigitte_Peskine.xlsx
+++ b/medicine/Enfance/Brigitte_Peskine/Brigitte_Peskine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brigitte Peskine est une écrivaine et scénariste française née Brigitte Aymard le 30 décembre 1951 à Neuilly-sur-Seine et morte le 6 septembre 2020 dans le 12e arrondissement de Paris[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigitte Peskine est une écrivaine et scénariste française née Brigitte Aymard le 30 décembre 1951 à Neuilly-sur-Seine et morte le 6 septembre 2020 dans le 12e arrondissement de Paris,.
 Elle est la belle-fille du cinéaste Boris Peskine.
 </t>
         </is>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brigitte Peskine commence à écrire à l'âge de 23 ans, lorsqu'elle quitte Paris où elle a toujours vécu. Déjà mère de famille, elle vient de déménager à Strasbourg, et travaille comme attachée à l'Institut national de la statistique et des études économiques. Quatre ans plus tard, elle part avec ses enfants au Vénézuéla où son mari est coopérant.
 De retour à Paris en 1981, Brigitte Peskine continue à mener de front son activité de statisticienne et de romancière. Son premier roman, Le Ventriloque, est publié en 1985 aux éditions Actes Sud, ainsi qu'un ouvrage pour la jeunesse, Ça s'arrangera, à l'École des Loisirs. D'autres livres suivent, tant en littérature pour adultes qu'en édition pour la jeunesse.
 Ses filles lui inspirent l’idée de la série télévisée La Famille Fontaine, dont elle co-signe les trente épisodes, diffusés sur FR2 et FR3 en 1989-1990. Elle choisit alors de se consacrer entièrement aux activités d'écrivain et de scénariste. 
 L'acquisition d'une maison dans le Cher scelle ce nouveau départ. Brigitte Peskine partage désormais son temps entre la capitale et Massay, où elle écrit, sculpte, et reçoit sa nombreuse famille. 
-Brigitte Peskine meurt le 5 septembre 2020 à Paris[1],[3].
+Brigitte Peskine meurt le 5 septembre 2020 à Paris,.
 </t>
         </is>
       </c>
@@ -549,17 +563,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Le Ventriloque, Actes Sud, 1985
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Ventriloque, Actes Sud, 1985
 Et la famille ? Ça va, merci, Luneau-Ascot, 1986
 L'Échappée, Ramsay, 1988
 Une robe pour Julia, Seghers/Laffont, 1992
 Les Eaux douces d'Europe, Seuil, 1996
 L'Enfant oublié, R. Laffont, 1997
 Buena Familia, NiL/Laffont, 2000
-Intimes Convictions, Rocher, 2002
-Romans pour la jeunesse
-Ça s'arrangera, L'École des Loisirs, 1985
+Intimes Convictions, Rocher, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ça s'arrangera, L'École des Loisirs, 1985
 La télé, c'est pas la vie, L'École des Loisirs, 1986
 Une odeur de poisson, L'École des Loisirs, 1988
 La Famille Fontaine, Nathan, 1989
@@ -584,41 +637,80 @@
 Moi, Delphine, 13 ans..., Pocket jeunesse, 2004
 Zaïna, cavalière de l'Atlas, Pocket jeunesse, 2005
 Famille de cœur, Casterman,  coll. « Castor poche »2005
-Les Jumeaux de l'île rouge, Bayard, 2014[4]
-Essais
-Femmes expatriées, IEP éditions, 1984
+Les Jumeaux de l'île rouge, Bayard, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Femmes expatriées, IEP éditions, 1984
 Un scénario nommé Désir, Belfond, 1994</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Brigitte_Peskine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brigitte_Peskine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Séries, téléfilms
-1989 : En cas de bonheur
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries, téléfilms</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1989 : En cas de bonheur
 1990 : La Famille Fontaine
 1990 : Le Second Voyage
 1991 : Des cornichons au chocolat
@@ -642,16 +734,50 @@
 2002 : Les Enfants du miracle - Prix du festival européen de la fiction scientifique
 2003 : Docteur Dassin, généraliste, épisodes 1 et 2
 2004 : Qui mange quand
-2004 : Granny boom[5]
+2004 : Granny boom
 2005 : Qui mange où
 2006-2007 : Plus belle la vie (29 épisodes)
 2007 : Supergranny.com
 2008 : Guy Môquet, un amour fusillé
 2009 : Père et Maire (épisode La Passion de Marie-France)
 2009 : Comme un mauvais souvenir
-2011 : Candice Renoir
-Documentaires
-2008 : M. Neuwirth, tenez bon
+2011 : Candice Renoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Peskine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008 : M. Neuwirth, tenez bon
 2012 : Le Marché de l'amour - Étoile de la Société civile des auteurs multimédia
 2012 : Le Lotus dans tous ses états - Prix du public Vesoul</t>
         </is>
